--- a/results/UKB.PVF.xlsx
+++ b/results/UKB.PVF.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Factors</t>
   </si>
@@ -27,6 +27,12 @@
   </si>
   <si>
     <t xml:space="preserve">Pvalue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ncase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ncontrol</t>
   </si>
   <si>
     <t xml:space="preserve">age_range70-80</t>
@@ -410,209 +416,287 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.847342776716254</v>
+        <v>0.845496058280975</v>
       </c>
       <c r="C2" t="n">
-        <v>0.531490527490983</v>
+        <v>0.53032204041462</v>
       </c>
       <c r="D2" t="n">
-        <v>1.35089854685207</v>
+        <v>1.34798015185219</v>
       </c>
       <c r="E2" t="n">
-        <v>0.486375520800801</v>
+        <v>0.480670568329495</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5739</v>
+      </c>
+      <c r="G2" t="n">
+        <v>484720</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>1.50566673085346</v>
+        <v>1.50759524776041</v>
       </c>
       <c r="C3" t="n">
-        <v>1.42077169463599</v>
+        <v>1.42243926587324</v>
       </c>
       <c r="D3" t="n">
-        <v>1.5956344801617</v>
+        <v>1.59784919159585</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000000000000000000000000000000000000000000191463242427492</v>
+        <v>0.000000000000000000000000000000000000000000149671122933355</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5739</v>
+      </c>
+      <c r="G3" t="n">
+        <v>484720</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>1.98692939041389</v>
+        <v>1.98876581890108</v>
       </c>
       <c r="C4" t="n">
-        <v>1.87516818824598</v>
+        <v>1.87683481163946</v>
       </c>
       <c r="D4" t="n">
-        <v>2.10535163044939</v>
+        <v>2.10737218741927</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000016038153543604</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000107839004284141</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5739</v>
+      </c>
+      <c r="G4" t="n">
+        <v>484720</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.949231819690009</v>
+        <v>0.94864202965887</v>
       </c>
       <c r="C5" t="n">
-        <v>0.890640379531293</v>
+        <v>0.890049950592355</v>
       </c>
       <c r="D5" t="n">
-        <v>1.01167774134178</v>
+        <v>1.01109123126896</v>
       </c>
       <c r="E5" t="n">
-        <v>0.108977429329462</v>
+        <v>0.105046092105067</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5739</v>
+      </c>
+      <c r="G5" t="n">
+        <v>484720</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.919035446754946</v>
+        <v>0.917639306359361</v>
       </c>
       <c r="C6" t="n">
-        <v>0.870540890674321</v>
+        <v>0.869143554279355</v>
       </c>
       <c r="D6" t="n">
-        <v>0.970231452008896</v>
+        <v>0.968840984242102</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00226873950677035</v>
+        <v>0.00191810075876505</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5739</v>
+      </c>
+      <c r="G6" t="n">
+        <v>484720</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>1.07203451206668</v>
+        <v>1.07851735281476</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0102936078206</v>
+        <v>1.01654079561087</v>
       </c>
       <c r="D7" t="n">
-        <v>1.13754851675369</v>
+        <v>1.14427250273173</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0215420332265151</v>
+        <v>0.0123049629193893</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5739</v>
+      </c>
+      <c r="G7" t="n">
+        <v>484720</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>1.00197460745019</v>
+        <v>0.999017585686593</v>
       </c>
       <c r="C8" t="n">
-        <v>0.907831932706329</v>
+        <v>0.906180482914072</v>
       </c>
       <c r="D8" t="n">
-        <v>1.10587992975978</v>
+        <v>1.10136573820439</v>
       </c>
       <c r="E8" t="n">
-        <v>0.968742799875231</v>
+        <v>0.984241586949009</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5739</v>
+      </c>
+      <c r="G8" t="n">
+        <v>484720</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>1.50818457106058</v>
+        <v>1.50264219294056</v>
       </c>
       <c r="C9" t="n">
-        <v>1.37507517476797</v>
+        <v>1.37097894597789</v>
       </c>
       <c r="D9" t="n">
-        <v>1.65417916207309</v>
+        <v>1.64694984312446</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00000000000000000287678912209119</v>
+        <v>0.00000000000000000320702109367471</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5739</v>
+      </c>
+      <c r="G9" t="n">
+        <v>484720</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>1.10986472775699</v>
+        <v>1.1266269417483</v>
       </c>
       <c r="C10" t="n">
-        <v>0.99167694339008</v>
+        <v>1.00842866770695</v>
       </c>
       <c r="D10" t="n">
-        <v>1.24213809963975</v>
+        <v>1.25867927650187</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0696041843408409</v>
+        <v>0.0349973596552345</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5739</v>
+      </c>
+      <c r="G10" t="n">
+        <v>484720</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>1.50503101313359</v>
+        <v>1.49557367392989</v>
       </c>
       <c r="C11" t="n">
-        <v>1.40990094879703</v>
+        <v>1.40104215951231</v>
       </c>
       <c r="D11" t="n">
-        <v>1.60657977599531</v>
+        <v>1.59648344553082</v>
       </c>
       <c r="E11" t="n">
-        <v>0.000000000000000000000000000000000128751734014426</v>
+        <v>0.00000000000000000000000000000000130780126725987</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5739</v>
+      </c>
+      <c r="G11" t="n">
+        <v>484720</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.95418219560856</v>
+        <v>0.95151305437439</v>
       </c>
       <c r="C12" t="n">
-        <v>0.892629062725783</v>
+        <v>0.890435039861589</v>
       </c>
       <c r="D12" t="n">
-        <v>1.0199798555025</v>
+        <v>1.01678062083632</v>
       </c>
       <c r="E12" t="n">
-        <v>0.168047398513996</v>
+        <v>0.142014239065265</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5739</v>
+      </c>
+      <c r="G12" t="n">
+        <v>484720</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>1.10600298877229</v>
+        <v>1.12828754083132</v>
       </c>
       <c r="C13" t="n">
-        <v>0.85775612955919</v>
+        <v>0.887839152516157</v>
       </c>
       <c r="D13" t="n">
-        <v>1.42609603011741</v>
+        <v>1.43385518783147</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4372345382384</v>
+        <v>0.323602524865903</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5739</v>
+      </c>
+      <c r="G13" t="n">
+        <v>484720</v>
       </c>
     </row>
   </sheetData>
